--- a/resource/01.기능/04.[Uranus]WBS(구축_일정표).xlsx
+++ b/resource/01.기능/04.[Uranus]WBS(구축_일정표).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.uranus\resource\01.기능\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1099,31 +1099,22 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1135,16 +1126,25 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1472,7 +1472,7 @@
   <dimension ref="A1:KW58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1494,87 +1494,87 @@
       <c r="B1" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="84"/>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
-      <c r="AY1" s="84"/>
-      <c r="AZ1" s="84"/>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="84"/>
-      <c r="BC1" s="84"/>
-      <c r="BD1" s="84"/>
-      <c r="BE1" s="84"/>
-      <c r="BF1" s="84"/>
-      <c r="BG1" s="84"/>
-      <c r="BH1" s="84"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="84"/>
-      <c r="BK1" s="84"/>
-      <c r="BL1" s="84"/>
-      <c r="BM1" s="84"/>
-      <c r="BN1" s="84"/>
-      <c r="BO1" s="84"/>
-      <c r="BP1" s="84"/>
-      <c r="BQ1" s="84"/>
-      <c r="BR1" s="84"/>
-      <c r="BS1" s="84"/>
-      <c r="BT1" s="84"/>
-      <c r="BU1" s="84"/>
-      <c r="BV1" s="84"/>
-      <c r="BW1" s="84"/>
-      <c r="BX1" s="84"/>
-      <c r="BY1" s="84"/>
-      <c r="BZ1" s="84"/>
-      <c r="CA1" s="84"/>
-      <c r="CB1" s="84"/>
-      <c r="CC1" s="84"/>
-      <c r="CD1" s="84"/>
-      <c r="CE1" s="84"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="82"/>
+      <c r="AS1" s="82"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="82"/>
+      <c r="BN1" s="82"/>
+      <c r="BO1" s="82"/>
+      <c r="BP1" s="82"/>
+      <c r="BQ1" s="82"/>
+      <c r="BR1" s="82"/>
+      <c r="BS1" s="82"/>
+      <c r="BT1" s="82"/>
+      <c r="BU1" s="82"/>
+      <c r="BV1" s="82"/>
+      <c r="BW1" s="82"/>
+      <c r="BX1" s="82"/>
+      <c r="BY1" s="82"/>
+      <c r="BZ1" s="82"/>
+      <c r="CA1" s="82"/>
+      <c r="CB1" s="82"/>
+      <c r="CC1" s="82"/>
+      <c r="CD1" s="82"/>
+      <c r="CE1" s="82"/>
       <c r="CF1" s="74"/>
       <c r="CG1" s="69"/>
       <c r="CH1" s="69"/>
@@ -1809,87 +1809,87 @@
       <c r="B2" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="84"/>
-      <c r="BC2" s="84"/>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
-      <c r="BG2" s="84"/>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="84"/>
-      <c r="BJ2" s="84"/>
-      <c r="BK2" s="84"/>
-      <c r="BL2" s="84"/>
-      <c r="BM2" s="84"/>
-      <c r="BN2" s="84"/>
-      <c r="BO2" s="84"/>
-      <c r="BP2" s="84"/>
-      <c r="BQ2" s="84"/>
-      <c r="BR2" s="84"/>
-      <c r="BS2" s="84"/>
-      <c r="BT2" s="84"/>
-      <c r="BU2" s="84"/>
-      <c r="BV2" s="84"/>
-      <c r="BW2" s="84"/>
-      <c r="BX2" s="84"/>
-      <c r="BY2" s="84"/>
-      <c r="BZ2" s="84"/>
-      <c r="CA2" s="84"/>
-      <c r="CB2" s="84"/>
-      <c r="CC2" s="84"/>
-      <c r="CD2" s="84"/>
-      <c r="CE2" s="84"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82"/>
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
+      <c r="BG2" s="82"/>
+      <c r="BH2" s="82"/>
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="82"/>
+      <c r="BL2" s="82"/>
+      <c r="BM2" s="82"/>
+      <c r="BN2" s="82"/>
+      <c r="BO2" s="82"/>
+      <c r="BP2" s="82"/>
+      <c r="BQ2" s="82"/>
+      <c r="BR2" s="82"/>
+      <c r="BS2" s="82"/>
+      <c r="BT2" s="82"/>
+      <c r="BU2" s="82"/>
+      <c r="BV2" s="82"/>
+      <c r="BW2" s="82"/>
+      <c r="BX2" s="82"/>
+      <c r="BY2" s="82"/>
+      <c r="BZ2" s="82"/>
+      <c r="CA2" s="82"/>
+      <c r="CB2" s="82"/>
+      <c r="CC2" s="82"/>
+      <c r="CD2" s="82"/>
+      <c r="CE2" s="82"/>
       <c r="CF2" s="74"/>
       <c r="CG2" s="69"/>
       <c r="CH2" s="69"/>
@@ -2124,87 +2124,87 @@
       <c r="B3" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="84"/>
-      <c r="AU3" s="84"/>
-      <c r="AV3" s="84"/>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="84"/>
-      <c r="AY3" s="84"/>
-      <c r="AZ3" s="84"/>
-      <c r="BA3" s="84"/>
-      <c r="BB3" s="84"/>
-      <c r="BC3" s="84"/>
-      <c r="BD3" s="84"/>
-      <c r="BE3" s="84"/>
-      <c r="BF3" s="84"/>
-      <c r="BG3" s="84"/>
-      <c r="BH3" s="84"/>
-      <c r="BI3" s="84"/>
-      <c r="BJ3" s="84"/>
-      <c r="BK3" s="84"/>
-      <c r="BL3" s="84"/>
-      <c r="BM3" s="84"/>
-      <c r="BN3" s="84"/>
-      <c r="BO3" s="84"/>
-      <c r="BP3" s="84"/>
-      <c r="BQ3" s="84"/>
-      <c r="BR3" s="84"/>
-      <c r="BS3" s="84"/>
-      <c r="BT3" s="84"/>
-      <c r="BU3" s="84"/>
-      <c r="BV3" s="84"/>
-      <c r="BW3" s="84"/>
-      <c r="BX3" s="84"/>
-      <c r="BY3" s="84"/>
-      <c r="BZ3" s="84"/>
-      <c r="CA3" s="84"/>
-      <c r="CB3" s="84"/>
-      <c r="CC3" s="84"/>
-      <c r="CD3" s="84"/>
-      <c r="CE3" s="84"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="82"/>
+      <c r="AS3" s="82"/>
+      <c r="AT3" s="82"/>
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="82"/>
+      <c r="AW3" s="82"/>
+      <c r="AX3" s="82"/>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82"/>
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="82"/>
+      <c r="BC3" s="82"/>
+      <c r="BD3" s="82"/>
+      <c r="BE3" s="82"/>
+      <c r="BF3" s="82"/>
+      <c r="BG3" s="82"/>
+      <c r="BH3" s="82"/>
+      <c r="BI3" s="82"/>
+      <c r="BJ3" s="82"/>
+      <c r="BK3" s="82"/>
+      <c r="BL3" s="82"/>
+      <c r="BM3" s="82"/>
+      <c r="BN3" s="82"/>
+      <c r="BO3" s="82"/>
+      <c r="BP3" s="82"/>
+      <c r="BQ3" s="82"/>
+      <c r="BR3" s="82"/>
+      <c r="BS3" s="82"/>
+      <c r="BT3" s="82"/>
+      <c r="BU3" s="82"/>
+      <c r="BV3" s="82"/>
+      <c r="BW3" s="82"/>
+      <c r="BX3" s="82"/>
+      <c r="BY3" s="82"/>
+      <c r="BZ3" s="82"/>
+      <c r="CA3" s="82"/>
+      <c r="CB3" s="82"/>
+      <c r="CC3" s="82"/>
+      <c r="CD3" s="82"/>
+      <c r="CE3" s="82"/>
       <c r="CF3" s="74"/>
       <c r="CG3" s="69"/>
       <c r="CH3" s="69"/>
@@ -2439,12 +2439,12 @@
       <c r="B4" s="77">
         <v>45555</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
@@ -2501,25 +2501,25 @@
       <c r="BJ4" s="6"/>
       <c r="BK4" s="6"/>
       <c r="BL4" s="6"/>
-      <c r="BM4" s="85"/>
-      <c r="BN4" s="86"/>
-      <c r="BO4" s="86"/>
-      <c r="BP4" s="86"/>
-      <c r="BQ4" s="86"/>
-      <c r="BR4" s="86"/>
-      <c r="BS4" s="86"/>
-      <c r="BT4" s="86"/>
-      <c r="BU4" s="86"/>
-      <c r="BV4" s="86"/>
-      <c r="BW4" s="86"/>
-      <c r="BX4" s="86"/>
-      <c r="BY4" s="86"/>
-      <c r="BZ4" s="86"/>
-      <c r="CA4" s="86"/>
-      <c r="CB4" s="86"/>
-      <c r="CC4" s="86"/>
-      <c r="CD4" s="86"/>
-      <c r="CE4" s="86"/>
+      <c r="BM4" s="80"/>
+      <c r="BN4" s="81"/>
+      <c r="BO4" s="81"/>
+      <c r="BP4" s="81"/>
+      <c r="BQ4" s="81"/>
+      <c r="BR4" s="81"/>
+      <c r="BS4" s="81"/>
+      <c r="BT4" s="81"/>
+      <c r="BU4" s="81"/>
+      <c r="BV4" s="81"/>
+      <c r="BW4" s="81"/>
+      <c r="BX4" s="81"/>
+      <c r="BY4" s="81"/>
+      <c r="BZ4" s="81"/>
+      <c r="CA4" s="81"/>
+      <c r="CB4" s="81"/>
+      <c r="CC4" s="81"/>
+      <c r="CD4" s="81"/>
+      <c r="CE4" s="81"/>
       <c r="CF4" s="69"/>
       <c r="CG4" s="69"/>
       <c r="CH4" s="69"/>
@@ -3059,66 +3059,66 @@
       <c r="KW5" s="70"/>
     </row>
     <row r="6" spans="1:309">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="80" t="s">
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="80" t="s">
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="80" t="s">
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="AE6" s="81"/>
-      <c r="AF6" s="81"/>
-      <c r="AG6" s="81"/>
-      <c r="AH6" s="81"/>
-      <c r="AI6" s="81"/>
-      <c r="AJ6" s="82"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
+      <c r="AI6" s="88"/>
+      <c r="AJ6" s="89"/>
       <c r="AK6" s="90" t="s">
         <v>10</v>
       </c>
@@ -3155,31 +3155,31 @@
       <c r="BJ6" s="83"/>
       <c r="BK6" s="83"/>
       <c r="BL6" s="11"/>
-      <c r="BM6" s="87" t="s">
+      <c r="BM6" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="BN6" s="88"/>
-      <c r="BO6" s="88"/>
-      <c r="BP6" s="88"/>
-      <c r="BQ6" s="88"/>
-      <c r="BR6" s="88"/>
-      <c r="BS6" s="89"/>
-      <c r="BT6" s="87" t="s">
+      <c r="BN6" s="85"/>
+      <c r="BO6" s="85"/>
+      <c r="BP6" s="85"/>
+      <c r="BQ6" s="85"/>
+      <c r="BR6" s="85"/>
+      <c r="BS6" s="86"/>
+      <c r="BT6" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="BU6" s="88"/>
-      <c r="BV6" s="88"/>
-      <c r="BW6" s="88"/>
-      <c r="BX6" s="88"/>
-      <c r="BY6" s="88"/>
-      <c r="BZ6" s="89"/>
-      <c r="CA6" s="87" t="s">
+      <c r="BU6" s="85"/>
+      <c r="BV6" s="85"/>
+      <c r="BW6" s="85"/>
+      <c r="BX6" s="85"/>
+      <c r="BY6" s="85"/>
+      <c r="BZ6" s="86"/>
+      <c r="CA6" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="CB6" s="88"/>
-      <c r="CC6" s="88"/>
-      <c r="CD6" s="88"/>
-      <c r="CE6" s="88"/>
+      <c r="CB6" s="85"/>
+      <c r="CC6" s="85"/>
+      <c r="CD6" s="85"/>
+      <c r="CE6" s="85"/>
       <c r="CF6" s="70"/>
       <c r="CG6" s="70"/>
       <c r="CH6" s="70"/>
@@ -3408,14 +3408,14 @@
       <c r="KW6" s="70"/>
     </row>
     <row r="7" spans="1:309" ht="35.25" customHeight="1">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
+      <c r="A7" s="93"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -12181,6 +12181,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="C1:H4"/>
     <mergeCell ref="BM4:CE4"/>
     <mergeCell ref="I1:CE3"/>
@@ -12193,16 +12203,6 @@
     <mergeCell ref="AK6:AQ6"/>
     <mergeCell ref="AR6:AX6"/>
     <mergeCell ref="AY6:BE6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P6:V6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="H10:H44 H8 H46:H50">

--- a/resource/01.기능/04.[Uranus]WBS(구축_일정표).xlsx
+++ b/resource/01.기능/04.[Uranus]WBS(구축_일정표).xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>1.1.1</t>
   </si>
@@ -447,6 +447,13 @@
   <si>
     <t>날짜</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 리스트 / 상세</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록/수정/삭제</t>
   </si>
 </sst>
 </file>
@@ -1099,6 +1106,21 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1126,26 +1148,11 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1471,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KW58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1494,87 +1501,87 @@
       <c r="B1" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="82"/>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="82"/>
-      <c r="AV1" s="82"/>
-      <c r="AW1" s="82"/>
-      <c r="AX1" s="82"/>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="82"/>
-      <c r="BA1" s="82"/>
-      <c r="BB1" s="82"/>
-      <c r="BC1" s="82"/>
-      <c r="BD1" s="82"/>
-      <c r="BE1" s="82"/>
-      <c r="BF1" s="82"/>
-      <c r="BG1" s="82"/>
-      <c r="BH1" s="82"/>
-      <c r="BI1" s="82"/>
-      <c r="BJ1" s="82"/>
-      <c r="BK1" s="82"/>
-      <c r="BL1" s="82"/>
-      <c r="BM1" s="82"/>
-      <c r="BN1" s="82"/>
-      <c r="BO1" s="82"/>
-      <c r="BP1" s="82"/>
-      <c r="BQ1" s="82"/>
-      <c r="BR1" s="82"/>
-      <c r="BS1" s="82"/>
-      <c r="BT1" s="82"/>
-      <c r="BU1" s="82"/>
-      <c r="BV1" s="82"/>
-      <c r="BW1" s="82"/>
-      <c r="BX1" s="82"/>
-      <c r="BY1" s="82"/>
-      <c r="BZ1" s="82"/>
-      <c r="CA1" s="82"/>
-      <c r="CB1" s="82"/>
-      <c r="CC1" s="82"/>
-      <c r="CD1" s="82"/>
-      <c r="CE1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="87"/>
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="87"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="87"/>
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="87"/>
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="87"/>
+      <c r="BA1" s="87"/>
+      <c r="BB1" s="87"/>
+      <c r="BC1" s="87"/>
+      <c r="BD1" s="87"/>
+      <c r="BE1" s="87"/>
+      <c r="BF1" s="87"/>
+      <c r="BG1" s="87"/>
+      <c r="BH1" s="87"/>
+      <c r="BI1" s="87"/>
+      <c r="BJ1" s="87"/>
+      <c r="BK1" s="87"/>
+      <c r="BL1" s="87"/>
+      <c r="BM1" s="87"/>
+      <c r="BN1" s="87"/>
+      <c r="BO1" s="87"/>
+      <c r="BP1" s="87"/>
+      <c r="BQ1" s="87"/>
+      <c r="BR1" s="87"/>
+      <c r="BS1" s="87"/>
+      <c r="BT1" s="87"/>
+      <c r="BU1" s="87"/>
+      <c r="BV1" s="87"/>
+      <c r="BW1" s="87"/>
+      <c r="BX1" s="87"/>
+      <c r="BY1" s="87"/>
+      <c r="BZ1" s="87"/>
+      <c r="CA1" s="87"/>
+      <c r="CB1" s="87"/>
+      <c r="CC1" s="87"/>
+      <c r="CD1" s="87"/>
+      <c r="CE1" s="87"/>
       <c r="CF1" s="74"/>
       <c r="CG1" s="69"/>
       <c r="CH1" s="69"/>
@@ -1809,87 +1816,87 @@
       <c r="B2" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="82"/>
-      <c r="AR2" s="82"/>
-      <c r="AS2" s="82"/>
-      <c r="AT2" s="82"/>
-      <c r="AU2" s="82"/>
-      <c r="AV2" s="82"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="82"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="82"/>
-      <c r="BA2" s="82"/>
-      <c r="BB2" s="82"/>
-      <c r="BC2" s="82"/>
-      <c r="BD2" s="82"/>
-      <c r="BE2" s="82"/>
-      <c r="BF2" s="82"/>
-      <c r="BG2" s="82"/>
-      <c r="BH2" s="82"/>
-      <c r="BI2" s="82"/>
-      <c r="BJ2" s="82"/>
-      <c r="BK2" s="82"/>
-      <c r="BL2" s="82"/>
-      <c r="BM2" s="82"/>
-      <c r="BN2" s="82"/>
-      <c r="BO2" s="82"/>
-      <c r="BP2" s="82"/>
-      <c r="BQ2" s="82"/>
-      <c r="BR2" s="82"/>
-      <c r="BS2" s="82"/>
-      <c r="BT2" s="82"/>
-      <c r="BU2" s="82"/>
-      <c r="BV2" s="82"/>
-      <c r="BW2" s="82"/>
-      <c r="BX2" s="82"/>
-      <c r="BY2" s="82"/>
-      <c r="BZ2" s="82"/>
-      <c r="CA2" s="82"/>
-      <c r="CB2" s="82"/>
-      <c r="CC2" s="82"/>
-      <c r="CD2" s="82"/>
-      <c r="CE2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="87"/>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="87"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="87"/>
+      <c r="BA2" s="87"/>
+      <c r="BB2" s="87"/>
+      <c r="BC2" s="87"/>
+      <c r="BD2" s="87"/>
+      <c r="BE2" s="87"/>
+      <c r="BF2" s="87"/>
+      <c r="BG2" s="87"/>
+      <c r="BH2" s="87"/>
+      <c r="BI2" s="87"/>
+      <c r="BJ2" s="87"/>
+      <c r="BK2" s="87"/>
+      <c r="BL2" s="87"/>
+      <c r="BM2" s="87"/>
+      <c r="BN2" s="87"/>
+      <c r="BO2" s="87"/>
+      <c r="BP2" s="87"/>
+      <c r="BQ2" s="87"/>
+      <c r="BR2" s="87"/>
+      <c r="BS2" s="87"/>
+      <c r="BT2" s="87"/>
+      <c r="BU2" s="87"/>
+      <c r="BV2" s="87"/>
+      <c r="BW2" s="87"/>
+      <c r="BX2" s="87"/>
+      <c r="BY2" s="87"/>
+      <c r="BZ2" s="87"/>
+      <c r="CA2" s="87"/>
+      <c r="CB2" s="87"/>
+      <c r="CC2" s="87"/>
+      <c r="CD2" s="87"/>
+      <c r="CE2" s="87"/>
       <c r="CF2" s="74"/>
       <c r="CG2" s="69"/>
       <c r="CH2" s="69"/>
@@ -2124,87 +2131,87 @@
       <c r="B3" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="82"/>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="82"/>
-      <c r="AP3" s="82"/>
-      <c r="AQ3" s="82"/>
-      <c r="AR3" s="82"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="82"/>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82"/>
-      <c r="BA3" s="82"/>
-      <c r="BB3" s="82"/>
-      <c r="BC3" s="82"/>
-      <c r="BD3" s="82"/>
-      <c r="BE3" s="82"/>
-      <c r="BF3" s="82"/>
-      <c r="BG3" s="82"/>
-      <c r="BH3" s="82"/>
-      <c r="BI3" s="82"/>
-      <c r="BJ3" s="82"/>
-      <c r="BK3" s="82"/>
-      <c r="BL3" s="82"/>
-      <c r="BM3" s="82"/>
-      <c r="BN3" s="82"/>
-      <c r="BO3" s="82"/>
-      <c r="BP3" s="82"/>
-      <c r="BQ3" s="82"/>
-      <c r="BR3" s="82"/>
-      <c r="BS3" s="82"/>
-      <c r="BT3" s="82"/>
-      <c r="BU3" s="82"/>
-      <c r="BV3" s="82"/>
-      <c r="BW3" s="82"/>
-      <c r="BX3" s="82"/>
-      <c r="BY3" s="82"/>
-      <c r="BZ3" s="82"/>
-      <c r="CA3" s="82"/>
-      <c r="CB3" s="82"/>
-      <c r="CC3" s="82"/>
-      <c r="CD3" s="82"/>
-      <c r="CE3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="87"/>
+      <c r="AM3" s="87"/>
+      <c r="AN3" s="87"/>
+      <c r="AO3" s="87"/>
+      <c r="AP3" s="87"/>
+      <c r="AQ3" s="87"/>
+      <c r="AR3" s="87"/>
+      <c r="AS3" s="87"/>
+      <c r="AT3" s="87"/>
+      <c r="AU3" s="87"/>
+      <c r="AV3" s="87"/>
+      <c r="AW3" s="87"/>
+      <c r="AX3" s="87"/>
+      <c r="AY3" s="87"/>
+      <c r="AZ3" s="87"/>
+      <c r="BA3" s="87"/>
+      <c r="BB3" s="87"/>
+      <c r="BC3" s="87"/>
+      <c r="BD3" s="87"/>
+      <c r="BE3" s="87"/>
+      <c r="BF3" s="87"/>
+      <c r="BG3" s="87"/>
+      <c r="BH3" s="87"/>
+      <c r="BI3" s="87"/>
+      <c r="BJ3" s="87"/>
+      <c r="BK3" s="87"/>
+      <c r="BL3" s="87"/>
+      <c r="BM3" s="87"/>
+      <c r="BN3" s="87"/>
+      <c r="BO3" s="87"/>
+      <c r="BP3" s="87"/>
+      <c r="BQ3" s="87"/>
+      <c r="BR3" s="87"/>
+      <c r="BS3" s="87"/>
+      <c r="BT3" s="87"/>
+      <c r="BU3" s="87"/>
+      <c r="BV3" s="87"/>
+      <c r="BW3" s="87"/>
+      <c r="BX3" s="87"/>
+      <c r="BY3" s="87"/>
+      <c r="BZ3" s="87"/>
+      <c r="CA3" s="87"/>
+      <c r="CB3" s="87"/>
+      <c r="CC3" s="87"/>
+      <c r="CD3" s="87"/>
+      <c r="CE3" s="87"/>
       <c r="CF3" s="74"/>
       <c r="CG3" s="69"/>
       <c r="CH3" s="69"/>
@@ -2439,12 +2446,12 @@
       <c r="B4" s="77">
         <v>45555</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
@@ -2501,25 +2508,25 @@
       <c r="BJ4" s="6"/>
       <c r="BK4" s="6"/>
       <c r="BL4" s="6"/>
-      <c r="BM4" s="80"/>
-      <c r="BN4" s="81"/>
-      <c r="BO4" s="81"/>
-      <c r="BP4" s="81"/>
-      <c r="BQ4" s="81"/>
-      <c r="BR4" s="81"/>
-      <c r="BS4" s="81"/>
-      <c r="BT4" s="81"/>
-      <c r="BU4" s="81"/>
-      <c r="BV4" s="81"/>
-      <c r="BW4" s="81"/>
-      <c r="BX4" s="81"/>
-      <c r="BY4" s="81"/>
-      <c r="BZ4" s="81"/>
-      <c r="CA4" s="81"/>
-      <c r="CB4" s="81"/>
-      <c r="CC4" s="81"/>
-      <c r="CD4" s="81"/>
-      <c r="CE4" s="81"/>
+      <c r="BM4" s="85"/>
+      <c r="BN4" s="86"/>
+      <c r="BO4" s="86"/>
+      <c r="BP4" s="86"/>
+      <c r="BQ4" s="86"/>
+      <c r="BR4" s="86"/>
+      <c r="BS4" s="86"/>
+      <c r="BT4" s="86"/>
+      <c r="BU4" s="86"/>
+      <c r="BV4" s="86"/>
+      <c r="BW4" s="86"/>
+      <c r="BX4" s="86"/>
+      <c r="BY4" s="86"/>
+      <c r="BZ4" s="86"/>
+      <c r="CA4" s="86"/>
+      <c r="CB4" s="86"/>
+      <c r="CC4" s="86"/>
+      <c r="CD4" s="86"/>
+      <c r="CE4" s="86"/>
       <c r="CF4" s="69"/>
       <c r="CG4" s="69"/>
       <c r="CH4" s="69"/>
@@ -3059,127 +3066,127 @@
       <c r="KW5" s="70"/>
     </row>
     <row r="6" spans="1:309">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="87" t="s">
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="87" t="s">
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="89"/>
-      <c r="AD6" s="87" t="s">
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="88"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="88"/>
-      <c r="AI6" s="88"/>
-      <c r="AJ6" s="89"/>
-      <c r="AK6" s="90" t="s">
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="81"/>
+      <c r="AI6" s="81"/>
+      <c r="AJ6" s="82"/>
+      <c r="AK6" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="AL6" s="83"/>
-      <c r="AM6" s="83"/>
-      <c r="AN6" s="83"/>
-      <c r="AO6" s="83"/>
-      <c r="AP6" s="83"/>
-      <c r="AQ6" s="91"/>
-      <c r="AR6" s="90" t="s">
+      <c r="AL6" s="88"/>
+      <c r="AM6" s="88"/>
+      <c r="AN6" s="88"/>
+      <c r="AO6" s="88"/>
+      <c r="AP6" s="88"/>
+      <c r="AQ6" s="93"/>
+      <c r="AR6" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="AS6" s="83"/>
-      <c r="AT6" s="83"/>
-      <c r="AU6" s="83"/>
-      <c r="AV6" s="83"/>
-      <c r="AW6" s="83"/>
-      <c r="AX6" s="83"/>
-      <c r="AY6" s="83" t="s">
+      <c r="AS6" s="88"/>
+      <c r="AT6" s="88"/>
+      <c r="AU6" s="88"/>
+      <c r="AV6" s="88"/>
+      <c r="AW6" s="88"/>
+      <c r="AX6" s="88"/>
+      <c r="AY6" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="AZ6" s="83"/>
-      <c r="BA6" s="83"/>
-      <c r="BB6" s="83"/>
-      <c r="BC6" s="83"/>
-      <c r="BD6" s="83"/>
-      <c r="BE6" s="83"/>
-      <c r="BF6" s="83" t="s">
+      <c r="AZ6" s="88"/>
+      <c r="BA6" s="88"/>
+      <c r="BB6" s="88"/>
+      <c r="BC6" s="88"/>
+      <c r="BD6" s="88"/>
+      <c r="BE6" s="88"/>
+      <c r="BF6" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="BG6" s="83"/>
-      <c r="BH6" s="83"/>
-      <c r="BI6" s="83"/>
-      <c r="BJ6" s="83"/>
-      <c r="BK6" s="83"/>
+      <c r="BG6" s="88"/>
+      <c r="BH6" s="88"/>
+      <c r="BI6" s="88"/>
+      <c r="BJ6" s="88"/>
+      <c r="BK6" s="88"/>
       <c r="BL6" s="11"/>
-      <c r="BM6" s="84" t="s">
+      <c r="BM6" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="BN6" s="85"/>
-      <c r="BO6" s="85"/>
-      <c r="BP6" s="85"/>
-      <c r="BQ6" s="85"/>
-      <c r="BR6" s="85"/>
-      <c r="BS6" s="86"/>
-      <c r="BT6" s="84" t="s">
+      <c r="BN6" s="90"/>
+      <c r="BO6" s="90"/>
+      <c r="BP6" s="90"/>
+      <c r="BQ6" s="90"/>
+      <c r="BR6" s="90"/>
+      <c r="BS6" s="91"/>
+      <c r="BT6" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="BU6" s="85"/>
-      <c r="BV6" s="85"/>
-      <c r="BW6" s="85"/>
-      <c r="BX6" s="85"/>
-      <c r="BY6" s="85"/>
-      <c r="BZ6" s="86"/>
-      <c r="CA6" s="84" t="s">
+      <c r="BU6" s="90"/>
+      <c r="BV6" s="90"/>
+      <c r="BW6" s="90"/>
+      <c r="BX6" s="90"/>
+      <c r="BY6" s="90"/>
+      <c r="BZ6" s="91"/>
+      <c r="CA6" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="CB6" s="85"/>
-      <c r="CC6" s="85"/>
-      <c r="CD6" s="85"/>
-      <c r="CE6" s="85"/>
+      <c r="CB6" s="90"/>
+      <c r="CC6" s="90"/>
+      <c r="CD6" s="90"/>
+      <c r="CE6" s="90"/>
       <c r="CF6" s="70"/>
       <c r="CG6" s="70"/>
       <c r="CH6" s="70"/>
@@ -3408,14 +3415,14 @@
       <c r="KW6" s="70"/>
     </row>
     <row r="7" spans="1:309" ht="35.25" customHeight="1">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -8945,7 +8952,7 @@
         <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="23">
@@ -9046,7 +9053,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="23">
@@ -12181,16 +12188,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P6:V6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="C1:H4"/>
     <mergeCell ref="BM4:CE4"/>
     <mergeCell ref="I1:CE3"/>
@@ -12203,6 +12200,16 @@
     <mergeCell ref="AK6:AQ6"/>
     <mergeCell ref="AR6:AX6"/>
     <mergeCell ref="AY6:BE6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="H10:H44 H8 H46:H50">
